--- a/data/outputs/management_elsevier/16.xlsx
+++ b/data/outputs/management_elsevier/16.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +935,12 @@
           <t>2-s2.0-84935036537</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1427</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1142,12 @@
           <t>2-s2.0-84938301264</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1533</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1335,6 +1357,12 @@
           <t>2-s2.0-84939484811</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1828</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1538,6 +1566,12 @@
           <t>2-s2.0-84941265748</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>992</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1747,6 +1781,12 @@
           <t>2-s2.0-84941896174</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>3375</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1954,6 +1994,12 @@
           <t>2-s2.0-84944450556</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>685</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2163,6 +2209,12 @@
           <t>2-s2.0-84938407201</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1781</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2372,6 +2424,12 @@
           <t>2-s2.0-84914159624</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1583</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2585,6 +2643,12 @@
           <t>2-s2.0-84923090056</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1547</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2786,6 +2850,12 @@
           <t>2-s2.0-84923112456</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1124</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2995,6 +3065,12 @@
           <t>2-s2.0-84923378848</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>3425</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3204,6 +3280,12 @@
           <t>2-s2.0-84924720906</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>983</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3405,6 +3487,12 @@
           <t>2-s2.0-84924121305</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3187</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3614,6 +3702,12 @@
           <t>2-s2.0-84925759772</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2662</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
